--- a/PRODUCTOS/excel/termotanques_datos.xlsx
+++ b/PRODUCTOS/excel/termotanques_datos.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{30AF67A2-5369-4C5F-A6CE-C9E756BC7A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tomtomtom\work\sanitarios-villa-ariza\web\sanitarios-villa-ariza\PRODUCTOS\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F99E3F-9CCB-4EC4-94F4-AD1088292228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="saiar" sheetId="1" r:id="rId1"/>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="300">
   <si>
     <t>id</t>
   </si>
@@ -991,15 +996,12 @@
   <si>
     <t>165cm x 51cm</t>
   </si>
-  <si>
-    <t>0</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1020,6 +1022,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1183,7 +1193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1236,6 +1246,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1254,7 +1267,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1556,7 +1569,7 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="5" max="5" width="41" customWidth="1"/>
@@ -1573,7 +1586,7 @@
     <col min="16" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="18.75">
+    <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1629,7 +1642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="213">
+    <row r="2" spans="1:19" ht="225" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>18</v>
       </c>
@@ -1678,7 +1691,7 @@
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
     </row>
-    <row r="3" spans="1:19" ht="213">
+    <row r="3" spans="1:19" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>32</v>
       </c>
@@ -1727,7 +1740,7 @@
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
     </row>
-    <row r="4" spans="1:19" ht="259.5">
+    <row r="4" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>37</v>
       </c>
@@ -1776,7 +1789,7 @@
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="1:19" ht="259.5">
+    <row r="5" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>48</v>
       </c>
@@ -1825,7 +1838,7 @@
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
     </row>
-    <row r="6" spans="1:19" ht="259.5">
+    <row r="6" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>58</v>
       </c>
@@ -1872,7 +1885,7 @@
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
     </row>
-    <row r="7" spans="1:19" ht="259.5">
+    <row r="7" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>67</v>
       </c>
@@ -1919,7 +1932,7 @@
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
     </row>
-    <row r="8" spans="1:19" ht="259.5">
+    <row r="8" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>73</v>
       </c>
@@ -1966,7 +1979,7 @@
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
     </row>
-    <row r="9" spans="1:19" ht="259.5">
+    <row r="9" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>79</v>
       </c>
@@ -2013,7 +2026,7 @@
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
     </row>
-    <row r="10" spans="1:19" ht="259.5">
+    <row r="10" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>84</v>
       </c>
@@ -2060,7 +2073,7 @@
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
     </row>
-    <row r="11" spans="1:19" ht="259.5">
+    <row r="11" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>90</v>
       </c>
@@ -2109,7 +2122,7 @@
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
     </row>
-    <row r="12" spans="1:19" ht="259.5">
+    <row r="12" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>98</v>
       </c>
@@ -2156,7 +2169,7 @@
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
     </row>
-    <row r="13" spans="1:19" ht="259.5">
+    <row r="13" spans="1:19" ht="255" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>105</v>
       </c>
@@ -2205,7 +2218,7 @@
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -2226,7 +2239,7 @@
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -2247,7 +2260,7 @@
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -2268,7 +2281,7 @@
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -2289,7 +2302,7 @@
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -2310,7 +2323,7 @@
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -2331,7 +2344,7 @@
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -2352,7 +2365,7 @@
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -2373,7 +2386,7 @@
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -2394,7 +2407,7 @@
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -2415,7 +2428,7 @@
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -2436,7 +2449,7 @@
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -2457,7 +2470,7 @@
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -2478,7 +2491,7 @@
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -2499,7 +2512,7 @@
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -2520,7 +2533,7 @@
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -2541,7 +2554,7 @@
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -2562,7 +2575,7 @@
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -2583,7 +2596,7 @@
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -2604,7 +2617,7 @@
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -2625,7 +2638,7 @@
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="13"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -2646,7 +2659,7 @@
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -2667,7 +2680,7 @@
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -2688,7 +2701,7 @@
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -2709,7 +2722,7 @@
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -2730,7 +2743,7 @@
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -2751,7 +2764,7 @@
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -2772,7 +2785,7 @@
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -2793,7 +2806,7 @@
       <c r="R41" s="13"/>
       <c r="S41" s="13"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -2814,7 +2827,7 @@
       <c r="R42" s="13"/>
       <c r="S42" s="13"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -2835,7 +2848,7 @@
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -2856,7 +2869,7 @@
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -2877,7 +2890,7 @@
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -2898,7 +2911,7 @@
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="13"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -2919,7 +2932,7 @@
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="13"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -2940,7 +2953,7 @@
       <c r="R48" s="13"/>
       <c r="S48" s="13"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="13"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -2961,7 +2974,7 @@
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="13"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -2982,7 +2995,7 @@
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -3003,7 +3016,7 @@
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -3024,7 +3037,7 @@
       <c r="R52" s="13"/>
       <c r="S52" s="13"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="13"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -3045,7 +3058,7 @@
       <c r="R53" s="13"/>
       <c r="S53" s="13"/>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="13"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -3066,7 +3079,7 @@
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="13"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -3087,7 +3100,7 @@
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="13"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -3108,7 +3121,7 @@
       <c r="R56" s="13"/>
       <c r="S56" s="13"/>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="13"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -3129,7 +3142,7 @@
       <c r="R57" s="13"/>
       <c r="S57" s="13"/>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="13"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -3150,7 +3163,7 @@
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -3171,7 +3184,7 @@
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="13"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -3192,7 +3205,7 @@
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="13"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -3213,7 +3226,7 @@
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="13"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -3234,7 +3247,7 @@
       <c r="R62" s="13"/>
       <c r="S62" s="13"/>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="13"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -3255,7 +3268,7 @@
       <c r="R63" s="13"/>
       <c r="S63" s="13"/>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="13"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -3276,7 +3289,7 @@
       <c r="R64" s="13"/>
       <c r="S64" s="13"/>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="13"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -3297,7 +3310,7 @@
       <c r="R65" s="13"/>
       <c r="S65" s="13"/>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="13"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -3318,7 +3331,7 @@
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -3339,7 +3352,7 @@
       <c r="R67" s="13"/>
       <c r="S67" s="13"/>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -3360,7 +3373,7 @@
       <c r="R68" s="13"/>
       <c r="S68" s="13"/>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -3381,7 +3394,7 @@
       <c r="R69" s="13"/>
       <c r="S69" s="13"/>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -3402,7 +3415,7 @@
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -3423,7 +3436,7 @@
       <c r="R71" s="13"/>
       <c r="S71" s="13"/>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -3444,7 +3457,7 @@
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -3465,7 +3478,7 @@
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -3486,7 +3499,7 @@
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -3507,7 +3520,7 @@
       <c r="R75" s="13"/>
       <c r="S75" s="13"/>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -3528,7 +3541,7 @@
       <c r="R76" s="13"/>
       <c r="S76" s="13"/>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -3549,7 +3562,7 @@
       <c r="R77" s="13"/>
       <c r="S77" s="13"/>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -3570,7 +3583,7 @@
       <c r="R78" s="13"/>
       <c r="S78" s="13"/>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -3591,7 +3604,7 @@
       <c r="R79" s="13"/>
       <c r="S79" s="13"/>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -3612,7 +3625,7 @@
       <c r="R80" s="13"/>
       <c r="S80" s="13"/>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -3633,7 +3646,7 @@
       <c r="R81" s="13"/>
       <c r="S81" s="13"/>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -3654,7 +3667,7 @@
       <c r="R82" s="13"/>
       <c r="S82" s="13"/>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -3675,7 +3688,7 @@
       <c r="R83" s="13"/>
       <c r="S83" s="13"/>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -3696,7 +3709,7 @@
       <c r="R84" s="13"/>
       <c r="S84" s="13"/>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -3717,7 +3730,7 @@
       <c r="R85" s="13"/>
       <c r="S85" s="13"/>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -3738,7 +3751,7 @@
       <c r="R86" s="13"/>
       <c r="S86" s="13"/>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -3759,7 +3772,7 @@
       <c r="R87" s="13"/>
       <c r="S87" s="13"/>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -3780,7 +3793,7 @@
       <c r="R88" s="13"/>
       <c r="S88" s="13"/>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -3801,7 +3814,7 @@
       <c r="R89" s="13"/>
       <c r="S89" s="13"/>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
@@ -3822,7 +3835,7 @@
       <c r="R90" s="13"/>
       <c r="S90" s="13"/>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -3843,7 +3856,7 @@
       <c r="R91" s="13"/>
       <c r="S91" s="13"/>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
@@ -3864,7 +3877,7 @@
       <c r="R92" s="13"/>
       <c r="S92" s="13"/>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
@@ -3885,7 +3898,7 @@
       <c r="R93" s="13"/>
       <c r="S93" s="13"/>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -3906,7 +3919,7 @@
       <c r="R94" s="13"/>
       <c r="S94" s="13"/>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -3927,7 +3940,7 @@
       <c r="R95" s="13"/>
       <c r="S95" s="13"/>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="13"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -3948,7 +3961,7 @@
       <c r="R96" s="13"/>
       <c r="S96" s="13"/>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="13"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -3969,7 +3982,7 @@
       <c r="R97" s="13"/>
       <c r="S97" s="13"/>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -3990,7 +4003,7 @@
       <c r="R98" s="13"/>
       <c r="S98" s="13"/>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -4011,7 +4024,7 @@
       <c r="R99" s="13"/>
       <c r="S99" s="13"/>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -4032,7 +4045,7 @@
       <c r="R100" s="13"/>
       <c r="S100" s="13"/>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -4053,7 +4066,7 @@
       <c r="R101" s="13"/>
       <c r="S101" s="13"/>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -4074,7 +4087,7 @@
       <c r="R102" s="13"/>
       <c r="S102" s="13"/>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -4095,7 +4108,7 @@
       <c r="R103" s="13"/>
       <c r="S103" s="13"/>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -4116,7 +4129,7 @@
       <c r="R104" s="13"/>
       <c r="S104" s="13"/>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -4137,7 +4150,7 @@
       <c r="R105" s="13"/>
       <c r="S105" s="13"/>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="13"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -4158,7 +4171,7 @@
       <c r="R106" s="13"/>
       <c r="S106" s="13"/>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="13"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -4179,7 +4192,7 @@
       <c r="R107" s="13"/>
       <c r="S107" s="13"/>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="13"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -4200,7 +4213,7 @@
       <c r="R108" s="13"/>
       <c r="S108" s="13"/>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="13"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -4221,7 +4234,7 @@
       <c r="R109" s="13"/>
       <c r="S109" s="13"/>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="13"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -4242,7 +4255,7 @@
       <c r="R110" s="13"/>
       <c r="S110" s="13"/>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="13"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -4263,7 +4276,7 @@
       <c r="R111" s="13"/>
       <c r="S111" s="13"/>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="13"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -4284,7 +4297,7 @@
       <c r="R112" s="13"/>
       <c r="S112" s="13"/>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A113" s="13"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
@@ -4318,7 +4331,7 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -4338,7 +4351,7 @@
     <col min="16" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="57">
+    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4394,7 +4407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="366">
+    <row r="2" spans="1:18" ht="360" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>115</v>
       </c>
@@ -4438,7 +4451,7 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
     </row>
-    <row r="3" spans="1:18" ht="366">
+    <row r="3" spans="1:18" ht="360" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>121</v>
       </c>
@@ -4482,7 +4495,7 @@
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
     </row>
-    <row r="4" spans="1:18" ht="366">
+    <row r="4" spans="1:18" ht="360" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>126</v>
       </c>
@@ -4526,7 +4539,7 @@
       <c r="Q4" s="13"/>
       <c r="R4" s="13"/>
     </row>
-    <row r="5" spans="1:18" ht="366">
+    <row r="5" spans="1:18" ht="360" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>130</v>
       </c>
@@ -4570,7 +4583,7 @@
       <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
     </row>
-    <row r="6" spans="1:18" ht="366">
+    <row r="6" spans="1:18" ht="360" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>134</v>
       </c>
@@ -4612,7 +4625,7 @@
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
     </row>
-    <row r="7" spans="1:18" ht="366">
+    <row r="7" spans="1:18" ht="360" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>139</v>
       </c>
@@ -4654,7 +4667,7 @@
       <c r="Q7" s="13"/>
       <c r="R7" s="13"/>
     </row>
-    <row r="8" spans="1:18" ht="366">
+    <row r="8" spans="1:18" ht="360" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>144</v>
       </c>
@@ -4696,7 +4709,7 @@
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -4716,7 +4729,7 @@
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -4736,7 +4749,7 @@
       <c r="Q10" s="13"/>
       <c r="R10" s="13"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -4756,7 +4769,7 @@
       <c r="Q11" s="13"/>
       <c r="R11" s="13"/>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -4776,7 +4789,7 @@
       <c r="Q12" s="13"/>
       <c r="R12" s="13"/>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -4796,7 +4809,7 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="13"/>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -4816,7 +4829,7 @@
       <c r="Q14" s="13"/>
       <c r="R14" s="13"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -4836,7 +4849,7 @@
       <c r="Q15" s="13"/>
       <c r="R15" s="13"/>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -4856,7 +4869,7 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="13"/>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -4876,7 +4889,7 @@
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -4896,7 +4909,7 @@
       <c r="Q18" s="13"/>
       <c r="R18" s="13"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -4916,7 +4929,7 @@
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -4936,7 +4949,7 @@
       <c r="Q20" s="13"/>
       <c r="R20" s="13"/>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -4956,7 +4969,7 @@
       <c r="Q21" s="13"/>
       <c r="R21" s="13"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -4976,7 +4989,7 @@
       <c r="Q22" s="13"/>
       <c r="R22" s="13"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -4996,7 +5009,7 @@
       <c r="Q23" s="13"/>
       <c r="R23" s="13"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -5016,7 +5029,7 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -5036,7 +5049,7 @@
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -5056,7 +5069,7 @@
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -5076,7 +5089,7 @@
       <c r="Q27" s="13"/>
       <c r="R27" s="13"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -5096,7 +5109,7 @@
       <c r="Q28" s="13"/>
       <c r="R28" s="13"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -5116,7 +5129,7 @@
       <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="13"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -5136,7 +5149,7 @@
       <c r="Q30" s="13"/>
       <c r="R30" s="13"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="13"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -5156,7 +5169,7 @@
       <c r="Q31" s="13"/>
       <c r="R31" s="13"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -5176,7 +5189,7 @@
       <c r="Q32" s="13"/>
       <c r="R32" s="13"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -5205,11 +5218,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4462D89F-C4E8-4947-820A-2E7606925CD1}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="F21" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -5225,7 +5238,7 @@
     <col min="16" max="18" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75">
+    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5281,7 +5294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="198">
+    <row r="2" spans="1:18" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>153</v>
       </c>
@@ -5329,7 +5342,7 @@
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
     </row>
-    <row r="3" spans="1:18" ht="198">
+    <row r="3" spans="1:18" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>164</v>
       </c>
@@ -5377,7 +5390,7 @@
       <c r="Q3" s="16"/>
       <c r="R3" s="16"/>
     </row>
-    <row r="4" spans="1:18" ht="381.75">
+    <row r="4" spans="1:18" ht="375" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>170</v>
       </c>
@@ -5425,7 +5438,7 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
     </row>
-    <row r="5" spans="1:18" ht="409.6">
+    <row r="5" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>181</v>
       </c>
@@ -5473,7 +5486,7 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="16"/>
     </row>
-    <row r="6" spans="1:18" ht="409.6">
+    <row r="6" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>192</v>
       </c>
@@ -5521,7 +5534,7 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="16"/>
     </row>
-    <row r="7" spans="1:18" ht="290.25">
+    <row r="7" spans="1:18" ht="285" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>198</v>
       </c>
@@ -5569,7 +5582,7 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
     </row>
-    <row r="8" spans="1:18" ht="336">
+    <row r="8" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>208</v>
       </c>
@@ -5615,7 +5628,7 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
     </row>
-    <row r="9" spans="1:18" ht="336">
+    <row r="9" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>214</v>
       </c>
@@ -5661,7 +5674,7 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
     </row>
-    <row r="10" spans="1:18" ht="336">
+    <row r="10" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>220</v>
       </c>
@@ -5707,7 +5720,7 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
     </row>
-    <row r="11" spans="1:18" ht="336">
+    <row r="11" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
         <v>227</v>
       </c>
@@ -5755,7 +5768,7 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
     </row>
-    <row r="12" spans="1:18" ht="336">
+    <row r="12" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>234</v>
       </c>
@@ -5803,7 +5816,7 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
     </row>
-    <row r="13" spans="1:18" ht="336">
+    <row r="13" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>243</v>
       </c>
@@ -5849,7 +5862,7 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
     </row>
-    <row r="14" spans="1:18" ht="336">
+    <row r="14" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>250</v>
       </c>
@@ -5895,7 +5908,7 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
     </row>
-    <row r="15" spans="1:18" ht="336">
+    <row r="15" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>256</v>
       </c>
@@ -5941,7 +5954,7 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
     </row>
-    <row r="16" spans="1:18" ht="336">
+    <row r="16" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>262</v>
       </c>
@@ -5987,7 +6000,7 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
     </row>
-    <row r="17" spans="1:18" ht="336">
+    <row r="17" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>268</v>
       </c>
@@ -6033,7 +6046,7 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
     </row>
-    <row r="18" spans="1:18" ht="336">
+    <row r="18" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>275</v>
       </c>
@@ -6081,7 +6094,7 @@
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
     </row>
-    <row r="19" spans="1:18" ht="336">
+    <row r="19" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>281</v>
       </c>
@@ -6129,7 +6142,7 @@
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
     </row>
-    <row r="20" spans="1:18" ht="336">
+    <row r="20" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>286</v>
       </c>
@@ -6177,7 +6190,7 @@
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
     </row>
-    <row r="21" spans="1:18" ht="336">
+    <row r="21" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>293</v>
       </c>
@@ -6225,7 +6238,7 @@
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="16"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -6238,16 +6251,14 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
       <c r="L22" s="16"/>
-      <c r="M22" s="16" t="s">
-        <v>300</v>
-      </c>
+      <c r="M22" s="16"/>
       <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
+      <c r="O22" s="18"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="16"/>
       <c r="B23" s="16"/>
       <c r="C23" s="16"/>
@@ -6267,7 +6278,7 @@
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -6287,7 +6298,7 @@
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -6307,7 +6318,7 @@
       <c r="Q25" s="16"/>
       <c r="R25" s="16"/>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -6327,7 +6338,7 @@
       <c r="Q26" s="16"/>
       <c r="R26" s="16"/>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -6347,7 +6358,7 @@
       <c r="Q27" s="16"/>
       <c r="R27" s="16"/>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -6367,7 +6378,7 @@
       <c r="Q28" s="16"/>
       <c r="R28" s="16"/>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="16"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -6387,7 +6398,7 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="16"/>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -6407,7 +6418,7 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="16"/>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="16"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -6427,7 +6438,7 @@
       <c r="Q31" s="16"/>
       <c r="R31" s="16"/>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -6447,7 +6458,7 @@
       <c r="Q32" s="16"/>
       <c r="R32" s="16"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="16"/>
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
@@ -6467,7 +6478,7 @@
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
@@ -6489,5 +6500,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PRODUCTOS/excel/termotanques_datos.xlsx
+++ b/PRODUCTOS/excel/termotanques_datos.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tomtomtom\work\sanitarios-villa-ariza\web\sanitarios-villa-ariza\PRODUCTOS\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29F99E3F-9CCB-4EC4-94F4-AD1088292228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6B9808-E537-4724-AD20-35EB3394152B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="saiar" sheetId="1" r:id="rId1"/>
-    <sheet name="sherman" sheetId="2" r:id="rId2"/>
-    <sheet name="rheem" sheetId="3" r:id="rId3"/>
+    <sheet name="saiar_0000" sheetId="1" r:id="rId1"/>
+    <sheet name="sherman_1000" sheetId="2" r:id="rId2"/>
+    <sheet name="rheem_2000" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="299">
   <si>
     <t>id</t>
   </si>
@@ -382,9 +381,6 @@
     <t>139cm x 45,1cm</t>
   </si>
   <si>
-    <t>0013</t>
-  </si>
-  <si>
     <t>TERMOTANQUE SHERMAN DE PARED TECC055ESHK2</t>
   </si>
   <si>
@@ -392,9 +388,6 @@
   </si>
   <si>
     <t>TEC55</t>
-  </si>
-  <si>
-    <t>PRODUCTOS\termotanques\img\0013_1.jpg</t>
   </si>
   <si>
     <t>A la hora de elegir el termotanque para tu hogar, es fundamental que contemples tus necesidades a fin de optar por el equipo que te brinde el mayor rendimiento con menor consumo de energía.&lt;br&gt;
@@ -403,87 +396,51 @@
 Sherman gas hasta 120 lts  tienen su exclusivo quemador "Gasmaster" lo que favorece la transferencia de calor de la llama al agua y reduce las pérdidas de calor.&lt;br&gt;</t>
   </si>
   <si>
-    <t>0014</t>
-  </si>
-  <si>
     <t>TERMOTANQUE DE SHERMAN PARED TECC085ESHK2</t>
   </si>
   <si>
     <t>TEC85</t>
   </si>
   <si>
-    <t>PRODUCTOS\termotanques\img\0014_1.jpg</t>
-  </si>
-  <si>
     <t>79cm x 45,1cm</t>
   </si>
   <si>
-    <t>0015</t>
-  </si>
-  <si>
     <t>TERMOTANQUE SHERMAN DE PIE TEPC055ESHK2</t>
   </si>
   <si>
     <t>TEP55</t>
   </si>
   <si>
-    <t>PRODUCTOS\termotanques\img\0015_1.jpg</t>
-  </si>
-  <si>
-    <t>0016</t>
-  </si>
-  <si>
     <t>TERMOTANQUE SHERMAN DE PIE TEPC085ESHK2</t>
   </si>
   <si>
     <t>TEP85</t>
   </si>
   <si>
-    <t>PRODUCTOS\termotanques\img\0016_1.jpg</t>
-  </si>
-  <si>
-    <t>0017</t>
-  </si>
-  <si>
     <t>TERMOTANQUE SHERMAN DE PIE EPGP050MSH13</t>
   </si>
   <si>
     <t>TPGP50</t>
   </si>
   <si>
-    <t>PRODUCTOS\termotanques\img\0017_1.jpg</t>
-  </si>
-  <si>
     <t>24</t>
   </si>
   <si>
-    <t>0018</t>
-  </si>
-  <si>
     <t>TERMOTANQUE SHERMAN DE PIE EPGP080MSH14</t>
   </si>
   <si>
     <t>TPGP80</t>
   </si>
   <si>
-    <t>PRODUCTOS\termotanques\img\0018_1.jpg</t>
-  </si>
-  <si>
     <t>221</t>
   </si>
   <si>
-    <t>0019</t>
-  </si>
-  <si>
     <t>TERMOTANQUE SHERMAN DE PIE EPGP120MSH15</t>
   </si>
   <si>
     <t>TPGP120</t>
   </si>
   <si>
-    <t>PRODUCTOS\termotanques\img\0019_1.jpg</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
@@ -499,9 +456,6 @@
     <t>t_dualcalefaccion</t>
   </si>
   <si>
-    <t>0020</t>
-  </si>
-  <si>
     <t>RHEEM CALDERA CONVENCIONAl DUAL 24L</t>
   </si>
   <si>
@@ -509,9 +463,6 @@
   </si>
   <si>
     <t>RS24RH</t>
-  </si>
-  <si>
-    <t>PRODUCTOS\termotanques\img\0020_1.jpg</t>
   </si>
   <si>
     <t>PRODUCTOS\termotanques\img\0020_2,jpg</t>
@@ -541,34 +492,22 @@
 Sistema anti-hielo.&lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
-    <t>0021</t>
-  </si>
-  <si>
     <t>RHEEM CALDERA CONVENCIONAl CALEFACCION 19L</t>
   </si>
   <si>
     <t>RS19RH</t>
   </si>
   <si>
-    <t>PRODUCTOS\termotanques\img\0021_1.jpg</t>
-  </si>
-  <si>
     <t>PRODUCTOS\termotanques\img\0021_2,jpg</t>
   </si>
   <si>
     <t>CALEFACCIÓN</t>
   </si>
   <si>
-    <t>0022</t>
-  </si>
-  <si>
     <t>CALEFON RHEEM 14L</t>
   </si>
   <si>
     <t>R7-14L-GN</t>
-  </si>
-  <si>
-    <t>PRODUCTOS\termotanques\img\0022_1.jpg</t>
   </si>
   <si>
     <t>PRODUCTOS\termotanques\img\0022_2.jpg</t>
@@ -603,16 +542,10 @@
 - Máxima ventilación: Único con 4 accesos de aireación, permiten liberar temperatura después de usos prolongados.&lt;br&gt;&lt;br&gt;N4</t>
   </si>
   <si>
-    <t>0023</t>
-  </si>
-  <si>
     <t>TERMOTANQUE RHEEM ALTA POTENCIA 160LT (GE)</t>
   </si>
   <si>
     <t>APG160LRH07</t>
-  </si>
-  <si>
-    <t>PRODUCTOS\termotanques\img\0023_1.jpg</t>
   </si>
   <si>
     <t>PRODUCTOS\termotanques\img\0023_2.jpg</t>
@@ -649,34 +582,22 @@
 - La vigencia de la garantía está sujeta a los términos y condiciones establecidos en el manual del usuario.&lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
-    <t>0024</t>
-  </si>
-  <si>
     <t>TERMOTANQUE RHEEM ALTA POTENCIA 160LT (GN)</t>
   </si>
   <si>
     <t>APG160NRH07</t>
   </si>
   <si>
-    <t>PRODUCTOS\termotanques\img\0024_1.jpg</t>
-  </si>
-  <si>
     <t>PRODUCTOS\termotanques\img\0024_2.jpg</t>
   </si>
   <si>
     <t>167cm x 45cm</t>
   </si>
   <si>
-    <t>0025</t>
-  </si>
-  <si>
     <t>TERMOTANQUE RHEEM FUNCTIONAL ELÉCTRICO PARED 85L</t>
   </si>
   <si>
     <t>TECC085ERHK2</t>
-  </si>
-  <si>
-    <t>PRODUCTOS\termotanques\img\0025_1.jpg</t>
   </si>
   <si>
     <t>PRODUCTOS\termotanques\img\0025_2.jpg</t>
@@ -706,16 +627,10 @@
 - La vigencia de la garantía está sujeta a los términos y condiciones establecidos en el manual del usuario.&lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
-    <t>0026</t>
-  </si>
-  <si>
     <t>TERMOTANQUE RHEEM FUNCTIONAL ELÉCTRICO PIE 85L</t>
   </si>
   <si>
     <t>TEPC085ERHK2</t>
-  </si>
-  <si>
-    <t>PRODUCTOS\termotanques\img\0026_1.jpg</t>
   </si>
   <si>
     <t>81,5cm x 45cm</t>
@@ -730,34 +645,22 @@
 - La vigencia de la garantía está sujeta a los términos y condiciones establecidos en el manual del usuario.&lt;br&gt;&lt;br&gt;</t>
   </si>
   <si>
-    <t>0027</t>
-  </si>
-  <si>
     <t>TERMOTANQUE RHEEM FUNCTIONAL ELÉCTRICO PIE 125L</t>
   </si>
   <si>
     <t>TEPC125ERHK2</t>
   </si>
   <si>
-    <t>PRODUCTOS\termotanques\img\0027_1.jpg</t>
-  </si>
-  <si>
     <t>4</t>
   </si>
   <si>
     <t>113cm x 45cm</t>
   </si>
   <si>
-    <t>0028</t>
-  </si>
-  <si>
     <t>TERMOTANQUE RHEEM FUNCTIONAL GN PIE 80L</t>
   </si>
   <si>
     <t>TPG080GNRH</t>
-  </si>
-  <si>
-    <t>PRODUCTOS\termotanques\img\0028_1.jpg</t>
   </si>
   <si>
     <t>Mayor Seguridad y Vida Útil Extendida
@@ -773,18 +676,12 @@
     <t>106,2cm x 45cm</t>
   </si>
   <si>
-    <t>0029</t>
-  </si>
-  <si>
     <t>TERMOTANQUE RHEEM FUNCTIONAL GN PIE 120L</t>
   </si>
   <si>
     <t>TPG120GNRH</t>
   </si>
   <si>
-    <t>PRODUCTOS\termotanques\img\0029_1.jpg</t>
-  </si>
-  <si>
     <t>PRODUCTOS\termotanques\img\0029_2.jpg</t>
   </si>
   <si>
@@ -794,18 +691,12 @@
     <t>138,2cm x 45cm</t>
   </si>
   <si>
-    <t>0030</t>
-  </si>
-  <si>
     <t>TERMOTANQUE RHEEM FUNCTIONAL GN PIE 150L</t>
   </si>
   <si>
     <t>TPG150GNRH</t>
   </si>
   <si>
-    <t>PRODUCTOS\termotanques\img\0030_1.jpg</t>
-  </si>
-  <si>
     <t>PRODUCTOS\termotanques\img\0030_2.jpg</t>
   </si>
   <si>
@@ -821,16 +712,10 @@
     <t>162,2cm x 45cm</t>
   </si>
   <si>
-    <t>0031</t>
-  </si>
-  <si>
     <t>TERMOTANQUE RHEEM ELÉCTRICO COLGAR 85L</t>
   </si>
   <si>
     <t>TEC085RH</t>
-  </si>
-  <si>
-    <t>PRODUCTOS\termotanques\img\0031_1.jpg</t>
   </si>
   <si>
     <t>Máxima Protección y Duración
@@ -847,72 +732,48 @@
     <t>83,7cm x 51cm</t>
   </si>
   <si>
-    <t>0032</t>
-  </si>
-  <si>
     <t>TERMOTANQUE RHEEM  PERFORMANCE ELÉCTRICO COLGAR 125L</t>
   </si>
   <si>
     <t>TEC125RH</t>
   </si>
   <si>
-    <t>PRODUCTOS\termotanques\img\0032_1.jpg</t>
-  </si>
-  <si>
     <t>35</t>
   </si>
   <si>
     <t>115,7cm x 51cm</t>
   </si>
   <si>
-    <t>0033</t>
-  </si>
-  <si>
     <t>TERMOTANQUE RHEEM PERFORMANCE ELÉCTRICO PIE 85L</t>
   </si>
   <si>
     <t>TEP085RH</t>
   </si>
   <si>
-    <t>PRODUCTOS\termotanques\img\0033_1.jpg</t>
-  </si>
-  <si>
     <t>26</t>
   </si>
   <si>
     <t>91cm x 51cm</t>
   </si>
   <si>
-    <t>0034</t>
-  </si>
-  <si>
     <t>TERMOTANQUE RHEEM PERFORMANCE ELÉCTRICO PIE 125L</t>
   </si>
   <si>
     <t>TEP125RH</t>
   </si>
   <si>
-    <t>PRODUCTOS\termotanques\img\0034_1.jpg</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
     <t>123cm x 51cm</t>
   </si>
   <si>
-    <t>0035</t>
-  </si>
-  <si>
     <t>TERMOTANQUE RHEEM PERFORMANCE ELÉCTRICO PIE 155L</t>
   </si>
   <si>
     <t>TEP155RH</t>
   </si>
   <si>
-    <t>PRODUCTOS\termotanques\img\0035_1.jpg</t>
-  </si>
-  <si>
     <t>155</t>
   </si>
   <si>
@@ -922,51 +783,33 @@
     <t>147,1cm x 51cm</t>
   </si>
   <si>
-    <t>0036</t>
-  </si>
-  <si>
     <t>TERMOTANQUE RHEEM PERFORMANCE GN PIE 80L</t>
   </si>
   <si>
     <t>TGNC080RH</t>
   </si>
   <si>
-    <t>PRODUCTOS\termotanques\img\0036_1.jpg</t>
-  </si>
-  <si>
     <t>PRODUCTOS\termotanques\img\0036_2.jpg</t>
   </si>
   <si>
     <t>111,2cm x 51cm</t>
   </si>
   <si>
-    <t>0037</t>
-  </si>
-  <si>
     <t>TGNP080RH</t>
   </si>
   <si>
-    <t>PRODUCTOS\termotanques\img\0037_1.jpg</t>
-  </si>
-  <si>
     <t>PRODUCTOS\termotanques\img\0037_2.jpg</t>
   </si>
   <si>
     <t>109,1cm x 51cm</t>
   </si>
   <si>
-    <t>0038</t>
-  </si>
-  <si>
     <t>TERMOTANQUE RHEEM PERFORMANCE GN PIE 120L</t>
   </si>
   <si>
     <t>TGNP120RH</t>
   </si>
   <si>
-    <t>PRODUCTOS\termotanques\img\0038_1.jpg</t>
-  </si>
-  <si>
     <t>PRODUCTOS\termotanques\img\0038_2.jpg</t>
   </si>
   <si>
@@ -976,18 +819,12 @@
     <t>141cm x 51cm</t>
   </si>
   <si>
-    <t>0039</t>
-  </si>
-  <si>
     <t>TERMOTANQUE RHEEM PERFORMANCE GN PIE 150L</t>
   </si>
   <si>
     <t>TGNP150RH</t>
   </si>
   <si>
-    <t>PRODUCTOS\termotanques\img\0039_1.jpg</t>
-  </si>
-  <si>
     <t>PRODUCTOS\termotanques\img\0039_2.jpg</t>
   </si>
   <si>
@@ -995,13 +832,172 @@
   </si>
   <si>
     <t>165cm x 51cm</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1001</t>
+  </si>
+  <si>
+    <t>1002</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>1006</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\1000_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\1001_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\1002_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\1003_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\1004_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\1005_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\1006_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\2000_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\2001_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\2002_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\2003_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\2004_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\2005_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\2006_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\2007_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\2008_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\2009_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\2010_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\2011_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\2012_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\2013_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\2014_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\2015_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\2016_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\2017_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\2018_1.jpg</t>
+  </si>
+  <si>
+    <t>PRODUCTOS\termotanques\img\2019_1.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1027,6 +1023,12 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1565,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S113"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4327,8 +4329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E045E4B-D690-4FFD-8426-533C6159483F}">
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4409,23 +4411,23 @@
     </row>
     <row r="2" spans="1:18" ht="360" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>118</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>119</v>
+        <v>272</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>62</v>
@@ -4453,23 +4455,23 @@
     </row>
     <row r="3" spans="1:18" ht="360" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>121</v>
+        <v>247</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>124</v>
+        <v>273</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H3" s="13" t="s">
         <v>71</v>
@@ -4487,7 +4489,7 @@
         <v>45</v>
       </c>
       <c r="M3" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
@@ -4497,23 +4499,23 @@
     </row>
     <row r="4" spans="1:18" ht="360" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>126</v>
+        <v>248</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>129</v>
+        <v>274</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>62</v>
@@ -4541,23 +4543,23 @@
     </row>
     <row r="5" spans="1:18" ht="360" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>130</v>
+        <v>249</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>133</v>
+        <v>275</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H5" s="13" t="s">
         <v>71</v>
@@ -4575,7 +4577,7 @@
         <v>45</v>
       </c>
       <c r="M5" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
@@ -4585,23 +4587,23 @@
     </row>
     <row r="6" spans="1:18" ht="360" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>134</v>
+        <v>250</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>137</v>
+        <v>276</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>42</v>
@@ -4616,7 +4618,7 @@
         <v>95</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
@@ -4627,23 +4629,23 @@
     </row>
     <row r="7" spans="1:18" ht="360" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>139</v>
+        <v>251</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>142</v>
+        <v>277</v>
       </c>
       <c r="F7" s="13"/>
       <c r="G7" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H7" s="13" t="s">
         <v>53</v>
@@ -4655,7 +4657,7 @@
         <v>54</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="L7" s="13" t="s">
         <v>56</v>
@@ -4669,23 +4671,23 @@
     </row>
     <row r="8" spans="1:18" ht="360" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>144</v>
+        <v>252</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>147</v>
+        <v>278</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>110</v>
@@ -4700,7 +4702,7 @@
         <v>112</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
@@ -5210,6 +5212,7 @@
       <c r="R33" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5218,8 +5221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4462D89F-C4E8-4947-820A-2E7606925CD1}">
   <dimension ref="A1:R34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F21" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5264,16 +5267,16 @@
         <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="M1" s="7" t="s">
         <v>12</v>
@@ -5296,31 +5299,31 @@
     </row>
     <row r="2" spans="1:18" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>153</v>
+        <v>63</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>157</v>
+        <v>279</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="H2" s="16" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>26</v>
@@ -5329,13 +5332,13 @@
         <v>26</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="M2" s="16" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
@@ -5344,31 +5347,31 @@
     </row>
     <row r="3" spans="1:18" ht="195" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>164</v>
+        <v>253</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>167</v>
+        <v>280</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>168</v>
+        <v>150</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>77</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="J3" s="16" t="s">
         <v>26</v>
@@ -5377,13 +5380,13 @@
         <v>26</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="M3" s="16" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
@@ -5392,34 +5395,34 @@
     </row>
     <row r="4" spans="1:18" ht="375" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="C4" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>175</v>
-      </c>
       <c r="H4" s="16" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="J4" s="16" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="K4" s="16" t="s">
         <v>26</v>
@@ -5428,10 +5431,10 @@
         <v>26</v>
       </c>
       <c r="M4" s="16" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
@@ -5440,34 +5443,34 @@
     </row>
     <row r="5" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>184</v>
+        <v>282</v>
       </c>
       <c r="F5" s="16" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="K5" s="16" t="s">
         <v>26</v>
@@ -5476,10 +5479,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="16" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="O5" s="16"/>
       <c r="P5" s="16"/>
@@ -5488,34 +5491,34 @@
     </row>
     <row r="6" spans="1:18" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>192</v>
+        <v>256</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>195</v>
+        <v>283</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="K6" s="16" t="s">
         <v>26</v>
@@ -5524,10 +5527,10 @@
         <v>26</v>
       </c>
       <c r="M6" s="16" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="O6" s="16"/>
       <c r="P6" s="16"/>
@@ -5536,25 +5539,25 @@
     </row>
     <row r="7" spans="1:18" ht="285" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>198</v>
+        <v>257</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>201</v>
+        <v>284</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="H7" s="16" t="s">
         <v>71</v>
@@ -5563,19 +5566,19 @@
         <v>45</v>
       </c>
       <c r="J7" s="16" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="L7" s="16" t="s">
         <v>26</v>
       </c>
       <c r="M7" s="16" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="O7" s="16"/>
       <c r="P7" s="16"/>
@@ -5584,23 +5587,23 @@
     </row>
     <row r="8" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>208</v>
+        <v>258</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>211</v>
+        <v>285</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="14" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>71</v>
@@ -5609,19 +5612,19 @@
         <v>45</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="L8" s="16" t="s">
         <v>26</v>
       </c>
       <c r="M8" s="16" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
@@ -5630,23 +5633,23 @@
     </row>
     <row r="9" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>214</v>
+        <v>259</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>217</v>
+        <v>286</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="14" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="H9" s="16" t="s">
         <v>88</v>
@@ -5655,19 +5658,19 @@
         <v>45</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>26</v>
       </c>
       <c r="M9" s="16" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
@@ -5676,44 +5679,44 @@
     </row>
     <row r="10" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>223</v>
+        <v>287</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="14" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="H10" s="16" t="s">
         <v>53</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>225</v>
+        <v>193</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="L10" s="16" t="s">
         <v>26</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
@@ -5722,46 +5725,46 @@
     </row>
     <row r="11" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>230</v>
+        <v>288</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="H11" s="16" t="s">
         <v>110</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="K11" s="16" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="L11" s="16" t="s">
         <v>26</v>
       </c>
       <c r="M11" s="16" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
@@ -5770,46 +5773,46 @@
     </row>
     <row r="12" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>238</v>
+        <v>202</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>224</v>
+        <v>192</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="K12" s="16" t="s">
-        <v>241</v>
+        <v>205</v>
       </c>
       <c r="L12" s="16" t="s">
         <v>26</v>
       </c>
       <c r="M12" s="16" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
@@ -5818,32 +5821,32 @@
     </row>
     <row r="13" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="F13" s="16"/>
       <c r="G13" s="14" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="H13" s="16" t="s">
         <v>71</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="K13" s="16" t="s">
         <v>26</v>
@@ -5852,10 +5855,10 @@
         <v>26</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="O13" s="16"/>
       <c r="P13" s="16"/>
@@ -5864,32 +5867,32 @@
     </row>
     <row r="14" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>251</v>
+        <v>212</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>252</v>
+        <v>213</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="14" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="H14" s="16" t="s">
         <v>88</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>254</v>
+        <v>214</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="K14" s="16" t="s">
         <v>26</v>
@@ -5898,10 +5901,10 @@
         <v>26</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="O14" s="16"/>
       <c r="P14" s="16"/>
@@ -5910,32 +5913,32 @@
     </row>
     <row r="15" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="14" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>71</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="J15" s="17" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="K15" s="16" t="s">
         <v>26</v>
@@ -5944,10 +5947,10 @@
         <v>26</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="N15" s="14" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="O15" s="16"/>
       <c r="P15" s="16"/>
@@ -5956,32 +5959,32 @@
     </row>
     <row r="16" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>263</v>
+        <v>220</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="14" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="H16" s="16" t="s">
         <v>88</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>266</v>
+        <v>222</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="K16" s="16" t="s">
         <v>26</v>
@@ -5990,10 +5993,10 @@
         <v>26</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>267</v>
+        <v>223</v>
       </c>
       <c r="N16" s="14" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
@@ -6002,32 +6005,32 @@
     </row>
     <row r="17" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>269</v>
+        <v>224</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="14" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>272</v>
+        <v>226</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>273</v>
+        <v>227</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>204</v>
+        <v>178</v>
       </c>
       <c r="K17" s="16" t="s">
         <v>26</v>
@@ -6036,10 +6039,10 @@
         <v>26</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>274</v>
+        <v>228</v>
       </c>
       <c r="N17" s="14" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="O17" s="16"/>
       <c r="P17" s="16"/>
@@ -6048,34 +6051,34 @@
     </row>
     <row r="18" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>53</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="K18" s="16" t="s">
         <v>26</v>
@@ -6084,10 +6087,10 @@
         <v>26</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="N18" s="14" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="O18" s="16"/>
       <c r="P18" s="16"/>
@@ -6096,34 +6099,34 @@
     </row>
     <row r="19" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>276</v>
+        <v>229</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>282</v>
+        <v>233</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>284</v>
+        <v>234</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="H19" s="16" t="s">
         <v>53</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="K19" s="16" t="s">
         <v>26</v>
@@ -6132,10 +6135,10 @@
         <v>26</v>
       </c>
       <c r="M19" s="16" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
@@ -6144,34 +6147,34 @@
     </row>
     <row r="20" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>287</v>
+        <v>236</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>290</v>
+        <v>238</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="H20" s="16" t="s">
         <v>110</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="K20" s="16" t="s">
         <v>26</v>
@@ -6180,10 +6183,10 @@
         <v>26</v>
       </c>
       <c r="M20" s="16" t="s">
-        <v>292</v>
+        <v>240</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
@@ -6192,34 +6195,34 @@
     </row>
     <row r="21" spans="1:18" ht="330" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>293</v>
+        <v>271</v>
       </c>
       <c r="B21" s="16" t="s">
-        <v>294</v>
+        <v>241</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>247</v>
+        <v>209</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="K21" s="16" t="s">
         <v>26</v>
@@ -6228,10 +6231,10 @@
         <v>26</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="N21" s="14" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
@@ -6499,6 +6502,7 @@
       <c r="R34" s="16"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
